--- a/CustomHomeRJ45GPIOConfigurations.xlsx
+++ b/CustomHomeRJ45GPIOConfigurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Hobbies\GitHub\HomeAutomationControlSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16CF7F9-84A3-406D-AF55-D814EEC85712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32676A9-B949-454D-976D-090C5F2147C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-63360" yWindow="972" windowWidth="21600" windowHeight="23340" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
+    <workbookView xWindow="-135" yWindow="315" windowWidth="38670" windowHeight="21420" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
   <si>
     <t>RJ45 as TypeB</t>
   </si>
@@ -131,13 +131,73 @@
   </si>
   <si>
     <t>N/C</t>
+  </si>
+  <si>
+    <t>8 Core Alarm</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Brown</t>
+  </si>
+  <si>
+    <t>bedroomsensor</t>
+  </si>
+  <si>
+    <t>8Core_Alarm</t>
+  </si>
+  <si>
+    <t>Gnd</t>
+  </si>
+  <si>
+    <t>5v</t>
+  </si>
+  <si>
+    <t>RGB</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Door</t>
+  </si>
+  <si>
+    <t>Lock</t>
+  </si>
+  <si>
+    <t>OilTank</t>
+  </si>
+  <si>
+    <t>SR04_TX</t>
+  </si>
+  <si>
+    <t>SR04_RX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +205,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +259,42 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEDED01"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -217,6 +320,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,227 +649,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E15B7-7E82-4833-846A-CE360D2701DA}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I4" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I5" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="J18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E19" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F19" t="s">
         <v>17</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G19" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H19" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I19" t="s">
         <v>31</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J19" t="s">
         <v>31</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K19" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J21" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A16:I16"/>
+    <mergeCell ref="B17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CustomHomeRJ45GPIOConfigurations.xlsx
+++ b/CustomHomeRJ45GPIOConfigurations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Hobbies\GitHub\HomeAutomationControlSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32676A9-B949-454D-976D-090C5F2147C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA68D7D-27D1-4F94-83C8-B3AA2CFD8A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="315" windowWidth="38670" windowHeight="21420" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
+    <workbookView xWindow="-63468" yWindow="-1884" windowWidth="17496" windowHeight="30480" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
   <si>
     <t>RJ45 as TypeB</t>
   </si>
@@ -191,6 +191,21 @@
   </si>
   <si>
     <t>SR04_RX</t>
+  </si>
+  <si>
+    <t>ESP32 Type A</t>
+  </si>
+  <si>
+    <t>6P</t>
+  </si>
+  <si>
+    <t>I2D</t>
+  </si>
+  <si>
+    <t>I2C</t>
+  </si>
+  <si>
+    <t>UART_TX will be dominant colour, as its important to identify output from esp pin (note this is transmit out of esp, thus RX from peripherials connect to this)</t>
   </si>
 </sst>
 </file>
@@ -649,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E15B7-7E82-4833-846A-CE360D2701DA}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,10 +767,13 @@
         <v>13</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" t="s">
-        <v>15</v>
+      <c r="K3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
@@ -945,6 +963,72 @@
         <v>51</v>
       </c>
     </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B17:J17"/>

--- a/CustomHomeRJ45GPIOConfigurations.xlsx
+++ b/CustomHomeRJ45GPIOConfigurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Hobbies\GitHub\HomeAutomationControlSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA68D7D-27D1-4F94-83C8-B3AA2CFD8A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AEB6E-7AE2-4FE6-8B53-768D857929ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-63468" yWindow="-1884" windowWidth="17496" windowHeight="30480" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t>RJ45 as TypeB</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>UART_TX will be dominant colour, as its important to identify output from esp pin (note this is transmit out of esp, thus RX from peripherials connect to this)</t>
+  </si>
+  <si>
+    <t>For Room Sensors</t>
+  </si>
+  <si>
+    <t>cat5e</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E15B7-7E82-4833-846A-CE360D2701DA}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,6 +1014,9 @@
       <c r="H26" t="s">
         <v>39</v>
       </c>
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
@@ -1027,6 +1036,29 @@
       </c>
       <c r="H27" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomHomeRJ45GPIOConfigurations.xlsx
+++ b/CustomHomeRJ45GPIOConfigurations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Hobbies\GitHub\HomeAutomationControlSystem\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\GitHub\PulSar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631AEB6E-7AE2-4FE6-8B53-768D857929ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B48ABE-32B4-4DFA-850D-BA253E2CBD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="38640" windowHeight="21390" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
+    <workbookView xWindow="-63492" yWindow="-5952" windowWidth="17544" windowHeight="30528" xr2:uid="{16AC328A-FD66-42D0-B89E-63D872D627A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="71">
   <si>
     <t>RJ45 as TypeB</t>
   </si>
@@ -212,6 +212,42 @@
   </si>
   <si>
     <t>cat5e</t>
+  </si>
+  <si>
+    <t>4 Core</t>
+  </si>
+  <si>
+    <t>6 Core</t>
+  </si>
+  <si>
+    <t>8 Core</t>
+  </si>
+  <si>
+    <t>USB D+</t>
+  </si>
+  <si>
+    <t>USB D-</t>
+  </si>
+  <si>
+    <t>Bathroom Sensor</t>
+  </si>
+  <si>
+    <t>cat5 eq.</t>
+  </si>
+  <si>
+    <t>I2C_D</t>
+  </si>
+  <si>
+    <t>I2C_C</t>
+  </si>
+  <si>
+    <t>b/w</t>
+  </si>
+  <si>
+    <t>w/b</t>
+  </si>
+  <si>
+    <t>3v3</t>
   </si>
 </sst>
 </file>
@@ -234,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +352,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF955601"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -350,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -358,6 +401,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF955601"/>
+      <color rgb="FF000000"/>
+      <color rgb="FFC65911"/>
+      <color rgb="FF05FF11"/>
+      <color rgb="FF0B00F0"/>
       <color rgb="FFEDED01"/>
       <color rgb="FFDB0303"/>
     </mruColors>
@@ -371,6 +419,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>179551</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149989</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>98205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Cabnex CCA alarm cable">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58D3EB06-4588-8DDA-100F-CBFE42FBF06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9380482" y="2531604"/>
+          <a:ext cx="5442605" cy="2191153"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,15 +784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699E15B7-7E82-4833-846A-CE360D2701DA}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
@@ -686,7 +800,7 @@
     <col min="11" max="11" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>32</v>
       </c>
@@ -715,7 +829,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -782,7 +896,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>21</v>
       </c>
@@ -811,7 +925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>26</v>
       </c>
@@ -843,7 +957,98 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s">
+        <v>34</v>
+      </c>
+      <c r="T10" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
@@ -856,7 +1061,7 @@
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -888,7 +1093,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>9</v>
       </c>
@@ -920,7 +1125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -952,7 +1157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>49</v>
       </c>
@@ -969,7 +1174,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>52</v>
       </c>
@@ -992,7 +1197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>53</v>
       </c>
@@ -1018,7 +1223,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>54</v>
       </c>
@@ -1038,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>58</v>
       </c>
@@ -1059,6 +1264,137 @@
       </c>
       <c r="H28" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>60</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O31" t="s">
+        <v>33</v>
+      </c>
+      <c r="P31" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>38</v>
+      </c>
+      <c r="R31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32" t="s">
+        <v>12</v>
+      </c>
+      <c r="O32" t="s">
+        <v>30</v>
+      </c>
+      <c r="P32" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>67</v>
+      </c>
+      <c r="R32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L33" t="s">
+        <v>65</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2</v>
+      </c>
+      <c r="O33" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>69</v>
+      </c>
+      <c r="R33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L38" t="s">
+        <v>43</v>
+      </c>
+      <c r="M38" t="s">
+        <v>44</v>
+      </c>
+      <c r="N38" t="s">
+        <v>30</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L39" t="s">
+        <v>39</v>
+      </c>
+      <c r="M39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="s">
+        <v>38</v>
+      </c>
+      <c r="O39" t="s">
+        <v>37</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1066,5 +1402,6 @@
     <mergeCell ref="B17:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>